--- a/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
+++ b/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Daily Task List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Timesheets\Daily Task List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task List" sheetId="1" r:id="rId1"/>
+    <sheet name="Reports to complete" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>Resource</t>
   </si>
@@ -47,13 +47,127 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Work Ethics</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Disciplinary Hearing Notice</t>
+  </si>
+  <si>
+    <t>Written Warning</t>
+  </si>
+  <si>
+    <t>Letter Template or Disciplinary/Sanctions</t>
+  </si>
+  <si>
+    <t>Sanction report</t>
+  </si>
+  <si>
+    <t>Credit Recovery Suspension</t>
+  </si>
+  <si>
+    <t>Minutes of Disciplinary Committee</t>
+  </si>
+  <si>
+    <t>Exoneration Letter</t>
+  </si>
+  <si>
+    <t>Final Warning Letter</t>
+  </si>
+  <si>
+    <t>Letter of Caution</t>
+  </si>
+  <si>
+    <t>Letter of Displeasure</t>
+  </si>
+  <si>
+    <t>Recall from Suspension Letter</t>
+  </si>
+  <si>
+    <t>Suspension Letter</t>
+  </si>
+  <si>
+    <t>Suspension Pending Investigation</t>
+  </si>
+  <si>
+    <t>Warning Letter</t>
+  </si>
+  <si>
+    <t>Disciplinary Report</t>
+  </si>
+  <si>
+    <t>Withdrawal of Sanction Letter</t>
+  </si>
+  <si>
+    <t>Declaration of Secrecy</t>
+  </si>
+  <si>
+    <t>Password Security Undertaking</t>
+  </si>
+  <si>
+    <t>Asset Declaration Form</t>
+  </si>
+  <si>
+    <t>Grievance Closure Letter</t>
+  </si>
+  <si>
+    <t>Grievance Final Correspondence</t>
+  </si>
+  <si>
+    <t>Grievance Holding Letters</t>
+  </si>
+  <si>
+    <t>Grievance Report</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Approval for CBN Return Cover Letter</t>
+  </si>
+  <si>
+    <t>CBN-Return Cover Letter</t>
+  </si>
+  <si>
+    <t>CBN Layout/template</t>
+  </si>
+  <si>
+    <t>Fraud Reporting - CBN</t>
+  </si>
+  <si>
+    <t>Letter template for commendation</t>
+  </si>
+  <si>
+    <t>Commendation report</t>
+  </si>
+  <si>
+    <t>Report No</t>
+  </si>
+  <si>
+    <t>Reporting Area</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Environment Loaded On (UAT/PreProd/Prod)</t>
+  </si>
+  <si>
+    <t>Reason Not Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +197,14 @@
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,8 +265,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -548,13 +677,511 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Work ethics'!A1" display="Work Ethics"/>
+    <hyperlink ref="B3:B30" location="'Work ethics'!A1" display="Work Ethics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
+++ b/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Timesheets\Daily Task List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParityLoan1\Desktop\Sage\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
     <sheet name="Reports to complete" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Resource</t>
   </si>
@@ -161,25 +161,94 @@
   </si>
   <si>
     <t>Reason Not Completed</t>
+  </si>
+  <si>
+    <t>RPT File Name</t>
+  </si>
+  <si>
+    <t>YSANC009</t>
+  </si>
+  <si>
+    <t>YMINDISCOM</t>
+  </si>
+  <si>
+    <t>YSANC020</t>
+  </si>
+  <si>
+    <t>YSANC005</t>
+  </si>
+  <si>
+    <t>YSANC002</t>
+  </si>
+  <si>
+    <t>YSANC008</t>
+  </si>
+  <si>
+    <t>YRECSUSPEN</t>
+  </si>
+  <si>
+    <t>YSANC011</t>
+  </si>
+  <si>
+    <t>YDISREP</t>
+  </si>
+  <si>
+    <t>YWDRAWSANC</t>
+  </si>
+  <si>
+    <t>YGRIEVCLOLET</t>
+  </si>
+  <si>
+    <t>YGRIVEFINCOR</t>
+  </si>
+  <si>
+    <t>YGRIEVLET</t>
+  </si>
+  <si>
+    <t>YSANC006</t>
+  </si>
+  <si>
+    <t>YASSDEC</t>
+  </si>
+  <si>
+    <t>YPASSEC</t>
+  </si>
+  <si>
+    <t>YDECSEC</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
+    <t>Format Work Ethic Reports</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Create Vacancy Report</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>Lots of formulas</t>
+  </si>
+  <si>
+    <t>Upload W/E Reports to UAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -191,14 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -206,8 +267,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +335,33 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,34 +390,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,87 +751,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>43143</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="20">
+        <v>43875</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>43143</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>43145</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>43146</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>43147</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43147</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,9 +889,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,493 +901,562 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="E3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="E13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="E26" s="13"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="E27" s="13"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
+++ b/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParityLoan1\Desktop\Sage\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alma Kaltwasser\Desktop\Sage\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>Resource</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>Upload W/E Reports to UAT</t>
+  </si>
+  <si>
+    <t>Leave Reports, Vacancy Age analysis</t>
+  </si>
+  <si>
+    <t>Work Ethics Reports</t>
+  </si>
+  <si>
+    <t>Leave View UBA, Create Leave Planning View</t>
+  </si>
+  <si>
+    <t>Load Query Tool Leave Reports</t>
+  </si>
+  <si>
+    <t>Load Leave reports on UBA</t>
+  </si>
+  <si>
+    <t>Internal Couple, Vacancy Age Load 10.16</t>
   </si>
 </sst>
 </file>
@@ -749,17 +767,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
@@ -857,7 +875,7 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -872,14 +890,287 @@
       <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20">
-        <v>43147</v>
-      </c>
+      <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>43148</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>43149</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>43150</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>43151</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>43152</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>43153</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>43154</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>43155</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>43156</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>43157</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>43158</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>43159</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>43160</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>43161</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>43162</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>43163</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>43164</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>43165</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>43166</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
+++ b/Daily Task List/Alma Kaltwasser Daily Task List.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>Resource</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Internal Couple, Vacancy Age Load 10.16</t>
+  </si>
+  <si>
+    <t>Relief &amp; Redeploy Reports</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -969,7 +972,7 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="22"/>
@@ -986,7 +989,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="22"/>
@@ -1003,7 +1006,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22"/>
@@ -1088,9 +1091,13 @@
       <c r="B19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="19"/>
       <c r="G19" s="22"/>
     </row>
